--- a/artfynd/A 48854-2019.xlsx
+++ b/artfynd/A 48854-2019.xlsx
@@ -816,7 +816,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3056139</v>
+        <v>3057790</v>
       </c>
       <c r="B3" t="n">
         <v>96334</v>
@@ -851,7 +851,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -861,17 +861,17 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Östtomten, 360 m NÖ om, Vrm</t>
+          <t>Gärdet, 500 m ÖNÖ om, Vrm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>365559.0432148376</v>
+        <v>365466.3266593472</v>
       </c>
       <c r="R3" t="n">
-        <v>6618565.766507677</v>
+        <v>6618760.65168799</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2011-10-23</t>
+          <t>2011-12-08</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -905,7 +905,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2011-10-23</t>
+          <t>2011-12-08</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>215 bladrosetter med 32 blomstänglar</t>
+          <t>30 bladrosetter, 2 smågrupper</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -934,7 +934,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>äldre granskog med inslag av tall</t>
+          <t>granskog med en del tallar, gallrad för ett tag sedan</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -945,14 +945,14 @@
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Per Larsson, Elvi Eriksson</t>
+          <t>Per Larsson</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3056366</v>
+        <v>3056139</v>
       </c>
       <c r="B4" t="n">
         <v>96334</v>
@@ -987,7 +987,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>215</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -997,14 +997,14 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Östtomten, 320 m NNÖ om, Vrm</t>
+          <t>Östtomten, 360 m NÖ om, Vrm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>365463.5963024567</v>
+        <v>365559.0432148376</v>
       </c>
       <c r="R4" t="n">
-        <v>6618600.539037504</v>
+        <v>6618565.766507677</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>mittkoordinat, 490 bladrosetter-41 blomstänglar 525-075, 110 bladrosetter-7 blomstänglar 534-088</t>
+          <t>215 bladrosetter med 32 blomstänglar</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1088,7 +1088,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3056367</v>
+        <v>3056366</v>
       </c>
       <c r="B5" t="n">
         <v>96334</v>
@@ -1123,7 +1123,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>600</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1133,14 +1133,14 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Östtomten, 270 m NNÖ om, Vrm</t>
+          <t>Östtomten, 320 m NNÖ om, Vrm</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>365428.9013190148</v>
+        <v>365463.5963024567</v>
       </c>
       <c r="R5" t="n">
-        <v>6618579.045586957</v>
+        <v>6618600.539037504</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1187,7 +1187,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>160 bladrosetter med 14 blomstänglar</t>
+          <t>mittkoordinat, 490 bladrosetter-41 blomstänglar 525-075, 110 bladrosetter-7 blomstänglar 534-088</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1224,7 +1224,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3056136</v>
+        <v>3056367</v>
       </c>
       <c r="B6" t="n">
         <v>96334</v>
@@ -1259,7 +1259,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>160</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1269,14 +1269,14 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Östtomten, 490 m NÖ om, Vrm</t>
+          <t>Östtomten, 270 m NNÖ om, Vrm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>365699.2698654335</v>
+        <v>365428.9013190148</v>
       </c>
       <c r="R6" t="n">
-        <v>6618593.572883067</v>
+        <v>6618579.045586957</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1323,7 +1323,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>80 bladrosetter med 12 blomstänglar</t>
+          <t>160 bladrosetter med 14 blomstänglar</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1360,7 +1360,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3056138</v>
+        <v>3056136</v>
       </c>
       <c r="B7" t="n">
         <v>96334</v>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>80</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1405,17 +1405,17 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Östtomten, 330 m NÖ om, Vrm</t>
+          <t>Östtomten, 490 m NÖ om, Vrm</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>365557.7136587457</v>
+        <v>365699.2698654335</v>
       </c>
       <c r="R7" t="n">
-        <v>6618514.767422446</v>
+        <v>6618593.572883067</v>
       </c>
       <c r="S7" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>mittkoordinat, 1 bladrosett 426-167, 20 bladrosetter med 3 blomstänglar 448-177, 15 bladrosetter med 1 blomstängel 461-180</t>
+          <t>80 bladrosetter med 12 blomstänglar</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1496,7 +1496,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3057790</v>
+        <v>3056137</v>
       </c>
       <c r="B8" t="n">
         <v>96334</v>
@@ -1531,7 +1531,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>110</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1541,14 +1541,14 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Gärdet, 500 m ÖNÖ om, Vrm</t>
+          <t>Östtomten, 350 m NÖ om, Vrm</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>365466.3266593472</v>
+        <v>365594.945751337</v>
       </c>
       <c r="R8" t="n">
-        <v>6618760.65168799</v>
+        <v>6618494.221399919</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1575,7 +1575,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2011-12-08</t>
+          <t>2011-10-23</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1585,7 +1585,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2011-12-08</t>
+          <t>2011-10-23</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1595,7 +1595,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>30 bladrosetter, 2 smågrupper</t>
+          <t>mittkoordinat, 100 bladrosetter med 3 blomstänglar 410-210, 10 bladrosetter med 1 blomstängel 435-209</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1614,7 +1614,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>granskog med en del tallar, gallrad för ett tag sedan</t>
+          <t>äldre granskog med inslag av tall</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1625,14 +1625,14 @@
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Per Larsson</t>
+          <t>Per Larsson, Elvi Eriksson</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3056137</v>
+        <v>3056138</v>
       </c>
       <c r="B9" t="n">
         <v>96334</v>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>36</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1677,14 +1677,14 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Östtomten, 350 m NÖ om, Vrm</t>
+          <t>Östtomten, 330 m NÖ om, Vrm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>365594.945751337</v>
+        <v>365557.7136587457</v>
       </c>
       <c r="R9" t="n">
-        <v>6618494.221399919</v>
+        <v>6618514.767422446</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>mittkoordinat, 100 bladrosetter med 3 blomstänglar 410-210, 10 bladrosetter med 1 blomstängel 435-209</t>
+          <t>mittkoordinat, 1 bladrosett 426-167, 20 bladrosetter med 3 blomstänglar 448-177, 15 bladrosetter med 1 blomstängel 461-180</t>
         </is>
       </c>
       <c r="AD9" t="b">

--- a/artfynd/A 48854-2019.xlsx
+++ b/artfynd/A 48854-2019.xlsx
@@ -816,7 +816,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3057790</v>
+        <v>3056139</v>
       </c>
       <c r="B3" t="n">
         <v>96334</v>
@@ -851,7 +851,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>215</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -861,17 +861,17 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Gärdet, 500 m ÖNÖ om, Vrm</t>
+          <t>Östtomten, 360 m NÖ om, Vrm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>365466.3266593472</v>
+        <v>365559.0432148376</v>
       </c>
       <c r="R3" t="n">
-        <v>6618760.65168799</v>
+        <v>6618565.766507677</v>
       </c>
       <c r="S3" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2011-12-08</t>
+          <t>2011-10-23</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -905,7 +905,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2011-12-08</t>
+          <t>2011-10-23</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>30 bladrosetter, 2 smågrupper</t>
+          <t>215 bladrosetter med 32 blomstänglar</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -934,7 +934,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>granskog med en del tallar, gallrad för ett tag sedan</t>
+          <t>äldre granskog med inslag av tall</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -945,14 +945,14 @@
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Per Larsson</t>
+          <t>Per Larsson, Elvi Eriksson</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3056139</v>
+        <v>3056366</v>
       </c>
       <c r="B4" t="n">
         <v>96334</v>
@@ -987,7 +987,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>600</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -997,14 +997,14 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Östtomten, 360 m NÖ om, Vrm</t>
+          <t>Östtomten, 320 m NNÖ om, Vrm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>365559.0432148376</v>
+        <v>365463.5963024567</v>
       </c>
       <c r="R4" t="n">
-        <v>6618565.766507677</v>
+        <v>6618600.539037504</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>215 bladrosetter med 32 blomstänglar</t>
+          <t>mittkoordinat, 490 bladrosetter-41 blomstänglar 525-075, 110 bladrosetter-7 blomstänglar 534-088</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1088,7 +1088,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3056366</v>
+        <v>3056367</v>
       </c>
       <c r="B5" t="n">
         <v>96334</v>
@@ -1123,7 +1123,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>160</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1133,14 +1133,14 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Östtomten, 320 m NNÖ om, Vrm</t>
+          <t>Östtomten, 270 m NNÖ om, Vrm</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>365463.5963024567</v>
+        <v>365428.9013190148</v>
       </c>
       <c r="R5" t="n">
-        <v>6618600.539037504</v>
+        <v>6618579.045586957</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1187,7 +1187,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>mittkoordinat, 490 bladrosetter-41 blomstänglar 525-075, 110 bladrosetter-7 blomstänglar 534-088</t>
+          <t>160 bladrosetter med 14 blomstänglar</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1224,7 +1224,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3056367</v>
+        <v>3056136</v>
       </c>
       <c r="B6" t="n">
         <v>96334</v>
@@ -1259,7 +1259,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>80</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1269,14 +1269,14 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Östtomten, 270 m NNÖ om, Vrm</t>
+          <t>Östtomten, 490 m NÖ om, Vrm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>365428.9013190148</v>
+        <v>365699.2698654335</v>
       </c>
       <c r="R6" t="n">
-        <v>6618579.045586957</v>
+        <v>6618593.572883067</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1323,7 +1323,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>160 bladrosetter med 14 blomstänglar</t>
+          <t>80 bladrosetter med 12 blomstänglar</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1360,7 +1360,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3056136</v>
+        <v>3056138</v>
       </c>
       <c r="B7" t="n">
         <v>96334</v>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>36</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1405,17 +1405,17 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Östtomten, 490 m NÖ om, Vrm</t>
+          <t>Östtomten, 330 m NÖ om, Vrm</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>365699.2698654335</v>
+        <v>365557.7136587457</v>
       </c>
       <c r="R7" t="n">
-        <v>6618593.572883067</v>
+        <v>6618514.767422446</v>
       </c>
       <c r="S7" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>80 bladrosetter med 12 blomstänglar</t>
+          <t>mittkoordinat, 1 bladrosett 426-167, 20 bladrosetter med 3 blomstänglar 448-177, 15 bladrosetter med 1 blomstängel 461-180</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1496,7 +1496,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3056137</v>
+        <v>3057790</v>
       </c>
       <c r="B8" t="n">
         <v>96334</v>
@@ -1531,7 +1531,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1541,14 +1541,14 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Östtomten, 350 m NÖ om, Vrm</t>
+          <t>Gärdet, 500 m ÖNÖ om, Vrm</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>365594.945751337</v>
+        <v>365466.3266593472</v>
       </c>
       <c r="R8" t="n">
-        <v>6618494.221399919</v>
+        <v>6618760.65168799</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1575,7 +1575,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2011-10-23</t>
+          <t>2011-12-08</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1585,7 +1585,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2011-10-23</t>
+          <t>2011-12-08</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1595,7 +1595,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>mittkoordinat, 100 bladrosetter med 3 blomstänglar 410-210, 10 bladrosetter med 1 blomstängel 435-209</t>
+          <t>30 bladrosetter, 2 smågrupper</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1614,7 +1614,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>äldre granskog med inslag av tall</t>
+          <t>granskog med en del tallar, gallrad för ett tag sedan</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1625,14 +1625,14 @@
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Per Larsson, Elvi Eriksson</t>
+          <t>Per Larsson</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3056138</v>
+        <v>3056137</v>
       </c>
       <c r="B9" t="n">
         <v>96334</v>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>110</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1677,14 +1677,14 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Östtomten, 330 m NÖ om, Vrm</t>
+          <t>Östtomten, 350 m NÖ om, Vrm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>365557.7136587457</v>
+        <v>365594.945751337</v>
       </c>
       <c r="R9" t="n">
-        <v>6618514.767422446</v>
+        <v>6618494.221399919</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>mittkoordinat, 1 bladrosett 426-167, 20 bladrosetter med 3 blomstänglar 448-177, 15 bladrosetter med 1 blomstängel 461-180</t>
+          <t>mittkoordinat, 100 bladrosetter med 3 blomstänglar 410-210, 10 bladrosetter med 1 blomstängel 435-209</t>
         </is>
       </c>
       <c r="AD9" t="b">
